--- a/spliced/falling/2023-03-25_17-59-36/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.869771957397464</v>
+        <v>-2.568546533584593</v>
       </c>
       <c r="D2" t="n">
-        <v>8.188082218170166</v>
+        <v>8.544089555740355</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.89351409673691</v>
+        <v>-1.202380612492562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2611449062824249</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.0716239511966705</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2226603776216507</v>
+        <v>-0.0607810914516449</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.721651673316956</v>
+        <v>-2.869771957397464</v>
       </c>
       <c r="D3" t="n">
-        <v>7.623609662055968</v>
+        <v>8.188082218170166</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.820488899946214</v>
+        <v>-1.89351409673691</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2386955916881561</v>
+        <v>0.2611449062824249</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3608686327934265</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0772744566202163</v>
+        <v>0.2226603776216507</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.097623348236085</v>
+        <v>-3.721651673316956</v>
       </c>
       <c r="D4" t="n">
-        <v>7.048315763473512</v>
+        <v>7.623609662055968</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.382553160190582</v>
+        <v>-2.820488899946214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5322163701057434</v>
+        <v>0.2386955916881561</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0166460778564214</v>
+        <v>-0.3608686327934265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.039248090237379</v>
+        <v>-0.0772744566202163</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.406465649604798</v>
+        <v>-4.097623348236085</v>
       </c>
       <c r="D5" t="n">
-        <v>7.42472231388092</v>
+        <v>7.048315763473512</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.858199380338192</v>
+        <v>-3.382553160190582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7162395119667053</v>
+        <v>0.5322163701057434</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1989893466234207</v>
+        <v>-0.0166460778564214</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0884227454662323</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.668206214904804</v>
+        <v>-4.406465649604798</v>
       </c>
       <c r="D6" t="n">
-        <v>6.401832580566415</v>
+        <v>7.42472231388092</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.706982076168021</v>
+        <v>-2.858199380338192</v>
       </c>
       <c r="F6" t="n">
-        <v>1.458746194839478</v>
+        <v>0.7162395119667053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5387831330299377</v>
+        <v>-0.1989893466234207</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3553708493709564</v>
+        <v>-0.0884227454662323</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-10.42951822280886</v>
+        <v>-1.668206214904804</v>
       </c>
       <c r="D7" t="n">
-        <v>10.53292512893678</v>
+        <v>6.401832580566415</v>
       </c>
       <c r="E7" t="n">
-        <v>17.01628107577567</v>
+        <v>-0.706982076168021</v>
       </c>
       <c r="F7" t="n">
-        <v>1.215621829032898</v>
+        <v>1.458746194839478</v>
       </c>
       <c r="G7" t="n">
-        <v>3.648850917816162</v>
+        <v>0.5387831330299377</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.939317226409912</v>
+        <v>-0.3553708493709564</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-13.75426650047303</v>
+        <v>-10.42951822280886</v>
       </c>
       <c r="D8" t="n">
-        <v>12.83328127861023</v>
+        <v>10.53292512893678</v>
       </c>
       <c r="E8" t="n">
-        <v>8.825744509696944</v>
+        <v>17.01628107577567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.697149932384491</v>
+        <v>1.215621829032898</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.561955213546753</v>
+        <v>3.648850917816162</v>
       </c>
       <c r="H8" t="n">
-        <v>2.918103218078613</v>
+        <v>-3.939317226409912</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.927797257900221</v>
+        <v>-13.75426650047303</v>
       </c>
       <c r="D9" t="n">
-        <v>11.75843620300293</v>
+        <v>12.83328127861023</v>
       </c>
       <c r="E9" t="n">
-        <v>3.359905034303661</v>
+        <v>8.825744509696944</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.915978789329529</v>
+        <v>0.697149932384491</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1592831164598465</v>
+        <v>-3.561955213546753</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5018258094787598</v>
+        <v>2.918103218078613</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7311251163482728</v>
+        <v>-6.927797257900221</v>
       </c>
       <c r="D10" t="n">
-        <v>8.272733926773066</v>
+        <v>11.75843620300293</v>
       </c>
       <c r="E10" t="n">
-        <v>2.376347184181214</v>
+        <v>3.359905034303661</v>
       </c>
       <c r="F10" t="n">
-        <v>1.59848165512085</v>
+        <v>-1.915978789329529</v>
       </c>
       <c r="G10" t="n">
-        <v>1.512196898460388</v>
+        <v>0.1592831164598465</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6305656433105469</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.263805747032156</v>
+        <v>0.7311251163482728</v>
       </c>
       <c r="D11" t="n">
-        <v>7.363986670970927</v>
+        <v>8.272733926773066</v>
       </c>
       <c r="E11" t="n">
-        <v>2.197247743606565</v>
+        <v>2.376347184181214</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.159435823559761</v>
+        <v>1.59848165512085</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8156577944755554</v>
+        <v>1.512196898460388</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9199630618095398</v>
+        <v>0.6305656433105469</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7175407409668102</v>
+        <v>2.263805747032156</v>
       </c>
       <c r="D12" t="n">
-        <v>9.555598974227896</v>
+        <v>7.363986670970927</v>
       </c>
       <c r="E12" t="n">
-        <v>1.757197499275209</v>
+        <v>2.197247743606565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0126754539087414</v>
+        <v>-0.159435823559761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1342376321554184</v>
+        <v>-0.8156577944755554</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.328173756599426</v>
+        <v>0.9199630618095398</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.773898720741262</v>
+        <v>0.7175407409668102</v>
       </c>
       <c r="D13" t="n">
-        <v>8.314922451972965</v>
+        <v>9.555598974227896</v>
       </c>
       <c r="E13" t="n">
-        <v>2.525771677494061</v>
+        <v>1.757197499275209</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0963639914989471</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2640464901924133</v>
+        <v>0.1342376321554184</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8072584271430969</v>
+        <v>-1.328173756599426</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.089288711547856</v>
+        <v>3.773898720741262</v>
       </c>
       <c r="D14" t="n">
-        <v>9.256607055664061</v>
+        <v>8.314922451972965</v>
       </c>
       <c r="E14" t="n">
-        <v>5.577280521392808</v>
+        <v>2.525771677494061</v>
       </c>
       <c r="F14" t="n">
-        <v>1.544267296791077</v>
+        <v>-0.0963639914989471</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0639881342649459</v>
+        <v>-0.2640464901924133</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7490735054016113</v>
+        <v>-0.8072584271430969</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.104704558849335</v>
+        <v>1.089288711547856</v>
       </c>
       <c r="D15" t="n">
-        <v>8.927368879318237</v>
+        <v>9.256607055664061</v>
       </c>
       <c r="E15" t="n">
-        <v>2.343123555183409</v>
+        <v>5.577280521392808</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.995391368865967</v>
+        <v>1.544267296791077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8813258409500122</v>
+        <v>0.0639881342649459</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5760459303855896</v>
+        <v>0.7490735054016113</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.28660249710083</v>
+        <v>2.104704558849335</v>
       </c>
       <c r="D16" t="n">
-        <v>7.885151982307432</v>
+        <v>8.927368879318237</v>
       </c>
       <c r="E16" t="n">
-        <v>2.352557301521302</v>
+        <v>2.343123555183409</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.253037333488464</v>
+        <v>-1.995391368865967</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7693848013877869</v>
+        <v>0.8813258409500122</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4392121136188507</v>
+        <v>-0.5760459303855896</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.81174808740616</v>
+        <v>2.28660249710083</v>
       </c>
       <c r="D17" t="n">
-        <v>8.390844881534578</v>
+        <v>7.885151982307432</v>
       </c>
       <c r="E17" t="n">
-        <v>1.742006152868269</v>
+        <v>2.352557301521302</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1798998117446899</v>
+        <v>-1.253037333488464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3457497358322143</v>
+        <v>-0.7693848013877869</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0044287731871008</v>
+        <v>-0.4392121136188507</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.457506418228151</v>
+        <v>2.81174808740616</v>
       </c>
       <c r="D18" t="n">
-        <v>8.694531917572021</v>
+        <v>8.390844881534578</v>
       </c>
       <c r="E18" t="n">
-        <v>1.465195775032044</v>
+        <v>1.742006152868269</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0542142912745475</v>
+        <v>-0.1798998117446899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2333505302667617</v>
+        <v>0.3457497358322143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1989893466234207</v>
+        <v>0.0044287731871008</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.469298005104063</v>
+        <v>3.457506418228151</v>
       </c>
       <c r="D19" t="n">
-        <v>8.534674406051636</v>
+        <v>8.694531917572021</v>
       </c>
       <c r="E19" t="n">
-        <v>1.470959067344665</v>
+        <v>1.465195775032044</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0705549344420433</v>
+        <v>-0.0542142912745475</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.119118720293045</v>
+        <v>0.2333505302667617</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1950187236070633</v>
+        <v>0.1989893466234207</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.979763031005859</v>
+        <v>3.469298005104063</v>
       </c>
       <c r="D20" t="n">
-        <v>8.450933218002319</v>
+        <v>8.534674406051636</v>
       </c>
       <c r="E20" t="n">
-        <v>1.210365951061249</v>
+        <v>1.470959067344665</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0215329993516206</v>
+        <v>-0.0705549344420433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1395827084779739</v>
+        <v>-0.119118720293045</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0713185146450996</v>
+        <v>-0.1950187236070633</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.198545038700105</v>
+        <v>2.979763031005859</v>
       </c>
       <c r="D21" t="n">
-        <v>8.029186010360718</v>
+        <v>8.450933218002319</v>
       </c>
       <c r="E21" t="n">
-        <v>1.33356249332428</v>
+        <v>1.210365951061249</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0612392425537109</v>
+        <v>0.0215329993516206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2464841306209564</v>
+        <v>0.1395827084779739</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1278235465288162</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3.5916051864624</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8.197292327880859</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.436704874038696</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0074830991216003</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0374154970049858</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0755945742130279</v>
+        <v>-0.0713185146450996</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-36/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-36/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.568546533584593</v>
+        <v>-2.278594136238097</v>
       </c>
       <c r="D2" t="n">
-        <v>8.544089555740355</v>
+        <v>10.26830673217773</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.202380612492562</v>
+        <v>-1.992950439453123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0265726372599601</v>
+        <v>0.299476683139801</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0716239511966705</v>
+        <v>0.1832595765590667</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0607810914516449</v>
+        <v>0.4633412957191467</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.869771957397464</v>
+        <v>-1.48284924030304</v>
       </c>
       <c r="D3" t="n">
-        <v>8.188082218170166</v>
+        <v>9.543427348136902</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.89351409673691</v>
+        <v>-0.6066013872623449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2611449062824249</v>
+        <v>-0.08216137439012521</v>
       </c>
       <c r="G3" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.3101668357849121</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2226603776216507</v>
+        <v>0.4265366494655609</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.721651673316956</v>
+        <v>-2.347809791564941</v>
       </c>
       <c r="D4" t="n">
-        <v>7.623609662055968</v>
+        <v>9.136160850524902</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.820488899946214</v>
+        <v>-1.348505258560181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2386955916881561</v>
+        <v>-0.1818851232528686</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3608686327934265</v>
+        <v>0.0901026204228401</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0772744566202163</v>
+        <v>0.0786489024758338</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.097623348236085</v>
+        <v>-2.276926577091217</v>
       </c>
       <c r="D5" t="n">
-        <v>7.048315763473512</v>
+        <v>9.172239780426027</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.382553160190582</v>
+        <v>-1.260899052023888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5322163701057434</v>
+        <v>0.0897971913218498</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0166460778564214</v>
+        <v>0.1569923609495163</v>
       </c>
       <c r="H5" t="n">
-        <v>0.039248090237379</v>
+        <v>0.2553416788578033</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.406465649604798</v>
+        <v>-3.074454665184022</v>
       </c>
       <c r="D6" t="n">
-        <v>7.42472231388092</v>
+        <v>9.003937959671021</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.858199380338192</v>
+        <v>-1.032875627279282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7162395119667053</v>
+        <v>0.1241583600640297</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1989893466234207</v>
+        <v>0.194713294506073</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0884227454662323</v>
+        <v>0.1459967941045761</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.668206214904804</v>
+        <v>-2.568546533584593</v>
       </c>
       <c r="D7" t="n">
-        <v>6.401832580566415</v>
+        <v>8.544089555740355</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.706982076168021</v>
+        <v>-1.202380612492562</v>
       </c>
       <c r="F7" t="n">
-        <v>1.458746194839478</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5387831330299377</v>
+        <v>-0.0716239511966705</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3553708493709564</v>
+        <v>-0.0607810914516449</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-10.42951822280886</v>
+        <v>-2.869771957397464</v>
       </c>
       <c r="D8" t="n">
-        <v>10.53292512893678</v>
+        <v>8.188082218170166</v>
       </c>
       <c r="E8" t="n">
-        <v>17.01628107577567</v>
+        <v>-1.89351409673691</v>
       </c>
       <c r="F8" t="n">
-        <v>1.215621829032898</v>
+        <v>0.2611449062824249</v>
       </c>
       <c r="G8" t="n">
-        <v>3.648850917816162</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.939317226409912</v>
+        <v>0.2226603776216507</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-13.75426650047303</v>
+        <v>-3.721651673316956</v>
       </c>
       <c r="D9" t="n">
-        <v>12.83328127861023</v>
+        <v>7.623609662055968</v>
       </c>
       <c r="E9" t="n">
-        <v>8.825744509696944</v>
+        <v>-2.820488899946214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.697149932384491</v>
+        <v>0.2386955916881561</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.561955213546753</v>
+        <v>-0.3608686327934265</v>
       </c>
       <c r="H9" t="n">
-        <v>2.918103218078613</v>
+        <v>-0.0772744566202163</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.927797257900221</v>
+        <v>-4.097623348236085</v>
       </c>
       <c r="D10" t="n">
-        <v>11.75843620300293</v>
+        <v>7.048315763473512</v>
       </c>
       <c r="E10" t="n">
-        <v>3.359905034303661</v>
+        <v>-3.382553160190582</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.915978789329529</v>
+        <v>0.5322163701057434</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1592831164598465</v>
+        <v>-0.0166460778564214</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5018258094787598</v>
+        <v>0.039248090237379</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7311251163482728</v>
+        <v>-4.406465649604798</v>
       </c>
       <c r="D11" t="n">
-        <v>8.272733926773066</v>
+        <v>7.42472231388092</v>
       </c>
       <c r="E11" t="n">
-        <v>2.376347184181214</v>
+        <v>-2.858199380338192</v>
       </c>
       <c r="F11" t="n">
-        <v>1.59848165512085</v>
+        <v>0.7162395119667053</v>
       </c>
       <c r="G11" t="n">
-        <v>1.512196898460388</v>
+        <v>-0.1989893466234207</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6305656433105469</v>
+        <v>-0.0884227454662323</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.263805747032156</v>
+        <v>-1.668206214904804</v>
       </c>
       <c r="D12" t="n">
-        <v>7.363986670970927</v>
+        <v>6.401832580566415</v>
       </c>
       <c r="E12" t="n">
-        <v>2.197247743606565</v>
+        <v>-0.706982076168021</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.159435823559761</v>
+        <v>1.458746194839478</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8156577944755554</v>
+        <v>0.5387831330299377</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9199630618095398</v>
+        <v>-0.3553708493709564</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7175407409668102</v>
+        <v>-10.42951822280886</v>
       </c>
       <c r="D13" t="n">
-        <v>9.555598974227896</v>
+        <v>10.53292512893678</v>
       </c>
       <c r="E13" t="n">
-        <v>1.757197499275209</v>
+        <v>17.01628107577567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0126754539087414</v>
+        <v>1.215621829032898</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1342376321554184</v>
+        <v>3.648850917816162</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.328173756599426</v>
+        <v>-3.939317226409912</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.773898720741262</v>
+        <v>-13.75426650047303</v>
       </c>
       <c r="D14" t="n">
-        <v>8.314922451972965</v>
+        <v>12.83328127861023</v>
       </c>
       <c r="E14" t="n">
-        <v>2.525771677494061</v>
+        <v>8.825744509696944</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0963639914989471</v>
+        <v>0.697149932384491</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2640464901924133</v>
+        <v>-3.561955213546753</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8072584271430969</v>
+        <v>2.918103218078613</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.089288711547856</v>
+        <v>-6.927797257900221</v>
       </c>
       <c r="D15" t="n">
-        <v>9.256607055664061</v>
+        <v>11.75843620300293</v>
       </c>
       <c r="E15" t="n">
-        <v>5.577280521392808</v>
+        <v>3.359905034303661</v>
       </c>
       <c r="F15" t="n">
-        <v>1.544267296791077</v>
+        <v>-1.915978789329529</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0639881342649459</v>
+        <v>0.1592831164598465</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7490735054016113</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.104704558849335</v>
+        <v>0.7311251163482728</v>
       </c>
       <c r="D16" t="n">
-        <v>8.927368879318237</v>
+        <v>8.272733926773066</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343123555183409</v>
+        <v>2.376347184181214</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.995391368865967</v>
+        <v>1.59848165512085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8813258409500122</v>
+        <v>1.512196898460388</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5760459303855896</v>
+        <v>0.6305656433105469</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.28660249710083</v>
+        <v>2.263805747032156</v>
       </c>
       <c r="D17" t="n">
-        <v>7.885151982307432</v>
+        <v>7.363986670970927</v>
       </c>
       <c r="E17" t="n">
-        <v>2.352557301521302</v>
+        <v>2.197247743606565</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.253037333488464</v>
+        <v>-0.159435823559761</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.7693848013877869</v>
+        <v>-0.8156577944755554</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.9199630618095398</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.81174808740616</v>
+        <v>0.7175407409668102</v>
       </c>
       <c r="D18" t="n">
-        <v>8.390844881534578</v>
+        <v>9.555598974227896</v>
       </c>
       <c r="E18" t="n">
-        <v>1.742006152868269</v>
+        <v>1.757197499275209</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1798998117446899</v>
+        <v>0.0126754539087414</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3457497358322143</v>
+        <v>0.1342376321554184</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0044287731871008</v>
+        <v>-1.328173756599426</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.457506418228151</v>
+        <v>3.773898720741262</v>
       </c>
       <c r="D19" t="n">
-        <v>8.694531917572021</v>
+        <v>8.314922451972965</v>
       </c>
       <c r="E19" t="n">
-        <v>1.465195775032044</v>
+        <v>2.525771677494061</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0542142912745475</v>
+        <v>-0.0963639914989471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2333505302667617</v>
+        <v>-0.2640464901924133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1989893466234207</v>
+        <v>-0.8072584271430969</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.469298005104063</v>
+        <v>1.089288711547856</v>
       </c>
       <c r="D20" t="n">
-        <v>8.534674406051636</v>
+        <v>9.256607055664061</v>
       </c>
       <c r="E20" t="n">
-        <v>1.470959067344665</v>
+        <v>5.577280521392808</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0705549344420433</v>
+        <v>1.544267296791077</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.119118720293045</v>
+        <v>0.0639881342649459</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1950187236070633</v>
+        <v>0.7490735054016113</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.104704558849335</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.927368879318237</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.343123555183409</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.995391368865967</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8813258409500122</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5760459303855896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.28660249710083</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.885151982307432</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.352557301521302</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.253037333488464</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.7693848013877869</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4392121136188507</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.81174808740616</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.390844881534578</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.742006152868269</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1798998117446899</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3457497358322143</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0044287731871008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.457506418228151</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.694531917572021</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.465195775032044</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0542142912745475</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2333505302667617</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1989893466234207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.469298005104063</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.534674406051636</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.470959067344665</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0705549344420433</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.119118720293045</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1950187236070633</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>2.979763031005859</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>8.450933218002319</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E26" t="n">
         <v>1.210365951061249</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F26" t="n">
         <v>0.0215329993516206</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>0.1395827084779739</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>-0.0713185146450996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3.198545038700105</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.029186010360718</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.33356249332428</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0612392425537109</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2464841306209564</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1278235465288162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3.5916051864624</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.197292327880859</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.436704874038696</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0074830991216003</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0374154970049858</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0755945742130279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.165686726570128</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.038311719894409</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.441773623228073</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0713185146450996</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0108428578823804</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0226020142436027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3.061142683029175</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.987302541732788</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.411497831344604</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0126754539087414</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0655152946710586</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.059285700321198</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.002557039260864</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.58986583352089</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0337503030896186</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0120645882561802</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0161879286170005</v>
       </c>
     </row>
   </sheetData>
